--- a/DMSNewVSale_2025-12-01_21-22.xlsx
+++ b/DMSNewVSale_2025-12-01_21-22.xlsx
@@ -332,13 +332,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>99.0000</t>
   </si>
   <si>
     <t>CONVENTIN 100MG 30 CAP.</t>
@@ -765,6 +765,9 @@
   </si>
   <si>
     <t>20.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
     <t>PANADOL ACUTE HEAD COLD</t>
@@ -2719,7 +2722,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -4484,21 +4487,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>11</v>
@@ -4517,21 +4520,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>11</v>
@@ -4543,14 +4546,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4560,14 +4563,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4583,7 +4586,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4593,14 +4596,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4609,31 +4612,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4642,28 +4645,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>11</v>
@@ -4675,14 +4678,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4692,11 +4695,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>11</v>
@@ -4708,14 +4711,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4725,14 +4728,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4741,14 +4744,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4758,11 +4761,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>15</v>
@@ -4774,31 +4777,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4814,21 +4817,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>11</v>
@@ -4840,28 +4843,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>11</v>
@@ -4873,31 +4876,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4906,14 +4909,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4923,11 +4926,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>15</v>
@@ -4946,7 +4949,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4956,14 +4959,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>191</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4972,14 +4975,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4989,14 +4992,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5005,14 +5008,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5022,11 +5025,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>11</v>
@@ -5038,14 +5041,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5055,11 +5058,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>11</v>
@@ -5071,14 +5074,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5088,11 +5091,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>11</v>
@@ -5104,31 +5107,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5137,7 +5140,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5150,18 +5153,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5170,7 +5173,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5187,11 +5190,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>11</v>
@@ -5224,10 +5227,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5236,14 +5239,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5253,14 +5256,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5269,14 +5272,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5286,14 +5289,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5302,14 +5305,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5319,14 +5322,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5335,14 +5338,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5352,14 +5355,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5368,14 +5371,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5385,14 +5388,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>111</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5408,7 +5411,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5418,14 +5421,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5434,14 +5437,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5451,14 +5454,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>249</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5467,14 +5470,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5484,14 +5487,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>11</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5500,14 +5503,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5517,14 +5520,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5533,31 +5536,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5566,14 +5569,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5583,11 +5586,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>169</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>170</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>11</v>
@@ -5606,7 +5609,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5616,11 +5619,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>11</v>
@@ -5632,14 +5635,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5649,11 +5652,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>11</v>
@@ -5665,14 +5668,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5682,14 +5685,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5698,14 +5701,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5715,14 +5718,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>262</v>
+        <v>343</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>263</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5738,7 +5741,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5748,11 +5751,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>11</v>
@@ -5771,7 +5774,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5781,11 +5784,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>347</v>
+        <v>124</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>348</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>11</v>
@@ -5797,7 +5800,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5814,14 +5817,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>351</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5830,7 +5833,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5847,14 +5850,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>58</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>249</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5870,7 +5873,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5880,14 +5883,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>11</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5903,7 +5906,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5913,11 +5916,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>11</v>
@@ -5929,14 +5932,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>357</v>
+        <v>11</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5946,14 +5949,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5962,14 +5965,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5979,14 +5982,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6002,7 +6005,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6012,14 +6015,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6028,14 +6031,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6061,14 +6064,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6078,14 +6081,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>366</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6094,14 +6097,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6111,11 +6114,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>170</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>11</v>
@@ -6134,7 +6137,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6144,11 +6147,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>340</v>
+        <v>169</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>332</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>11</v>
@@ -6167,7 +6170,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6177,14 +6180,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6200,7 +6203,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6210,51 +6213,84 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>358</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" ht="26.25" customHeight="1">
-      <c r="N142" s="13">
-        <v>9724.0249999999996</v>
-      </c>
-      <c r="O142" s="13"/>
-      <c r="P142" s="13"/>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>371</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>32</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>60</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
         <v>372</v>
       </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" ht="25.5" customHeight="1">
+      <c r="N143" s="13">
+        <v>9772.0249999999996</v>
+      </c>
+      <c r="O143" s="13"/>
+      <c r="P143" s="13"/>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
         <v>373</v>
       </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
         <v>374</v>
       </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
+        <v>375</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6938,10 +6974,15 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="N142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="N143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
